--- a/ESPN sports website/IPL/Kolkata Knight Riders/Sam Billings †.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Sam Billings †.xlsx
@@ -445,31 +445,31 @@
         <v>Sam Billings †</v>
       </c>
       <c r="C2" t="str">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="str">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>141.66</v>
+        <v>104.34</v>
       </c>
       <c r="H2" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>April 06, 2022</v>
+        <v>April 01, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Sam Billings †</v>
       </c>
       <c r="C3" t="str">
+        <v>36</v>
+      </c>
+      <c r="D3" t="str">
         <v>24</v>
       </c>
-      <c r="D3" t="str">
-        <v>23</v>
-      </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="str">
-        <v>104.34</v>
+        <v>150.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 01, 2022</v>
+        <v>May 18, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
+        <v>Super Giants won by 2 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Sam Billings †</v>
       </c>
       <c r="C4" t="str">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>166.66</v>
+        <v>141.66</v>
       </c>
       <c r="H4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J4" t="str">
-        <v>April 10, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Sam Billings †</v>
       </c>
       <c r="C5" t="str">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D5" t="str">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>117.24</v>
+        <v>166.66</v>
       </c>
       <c r="H5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I5" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J5" t="str">
-        <v>May 14, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>KKR won by 54 runs</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         <v>Sam Billings †</v>
       </c>
       <c r="C7" t="str">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="str">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="str">
-        <v>150.00</v>
+        <v>117.24</v>
       </c>
       <c r="H7" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J7" t="str">
-        <v>May 18, 2022</v>
+        <v>May 14, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Giants won by 2 runs</v>
+        <v>KKR won by 54 runs</v>
       </c>
     </row>
   </sheetData>
